--- a/trend_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
+++ b/trend_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0484690942141995</v>
+        <v>0.9515309057858</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.561329329073975</v>
+        <v>0.438670670926025</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0056201901231172</v>
+        <v>0.994379809876883</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.88016449444096</v>
+        <v>0.11983550555904</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.231216363225238</v>
+        <v>1.89357412451604e-07</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.801724137931034</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.37</v>
+        <v>2.78</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.03516547700092</v>
+        <v>0.537523681853789</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.163874913936656</v>
+        <v>0.160965394332828</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0333046747927118</v>
+        <v>0.9555667113433201</v>
       </c>
       <c r="N30" t="n">
-        <v>-9.50418297322161</v>
+        <v>19.3353842393449</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.004690155454255</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0298507462686567</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.544776119402985</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>98</v>
+        <v>0.68</v>
       </c>
       <c r="K31" t="n">
-        <v>0.156623869863013</v>
+        <v>-0.0280345394736842</v>
       </c>
       <c r="L31" t="n">
-        <v>-11.4247946889252</v>
+        <v>-0.0501630595066752</v>
       </c>
       <c r="M31" t="n">
-        <v>11.8695666904365</v>
+        <v>-0.0110866223249988</v>
       </c>
       <c r="N31" t="n">
-        <v>0.159820275370421</v>
+        <v>-4.12272639318885</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.40324797025367</v>
+        <v>0.8753471297007051</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.78735632183908</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.78</v>
+        <v>10.455</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.184149432773109</v>
+        <v>0.0200211813190565</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.51505051542209</v>
+        <v>-0.0062555112848035</v>
       </c>
       <c r="M32" t="n">
-        <v>0.768220584954268</v>
+        <v>0.049978824947014</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.18597634555552</v>
+        <v>0.191498625720292</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.393807883351103</v>
+        <v>0.154852416839398</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.117977528089888</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>0.140449438202247</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3975</v>
+        <v>0.013</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0025946721311475</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0257944943250009</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0193014626817404</v>
+        <v>0.0002775048121263</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.6527477059490679</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.264799404212504</v>
+        <v>0.0126491643538297</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>99.66500000000001</v>
+        <v>142</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.2256711409396</v>
+        <v>6.68956043956044</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.33482515402094</v>
+        <v>1.35509628027412</v>
       </c>
       <c r="M34" t="n">
-        <v>1.32980209716707</v>
+        <v>12.4005955643355</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.22979094059058</v>
+        <v>4.71095805602848</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.704247481502542</v>
+        <v>0.860813250449554</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.783625730994152</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.228070175438596</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>5.6575</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0319553805774277</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.298686745808834</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.303981094505969</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.564832179892668</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3610,7 +3630,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3620,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.337842392518714</v>
+        <v>0.117880274051067</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.210191082802548</v>
       </c>
       <c r="H36" t="n">
-        <v>0.777777777777778</v>
+        <v>0.127388535031847</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>102.165</v>
+        <v>0.004</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.241380094974278</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.01692199051643</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.571196857234983</v>
+        <v>0.0001484428754647</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.236264958620152</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3668,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3697,7 +3721,1249 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.71948178734323</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0007019248499286</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0069810753743514</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0029232754935277</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.171913997043513</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.583544681077155</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.554913294797688</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0011787613429523</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0077819381251139</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0106359985719401</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0155714840548532</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.684168175778247</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0168539325842697</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.887640449438202</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0009012673156698</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0064766546239559</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0031673893199452</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.223085969225208</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.816142221427297</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.685393258426966</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0036690749084005</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.010425504810685</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0032681688829578</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.531749986724714</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.227405570267116</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.491525423728814</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0002264661286578</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0002484609657059</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0007477935581043</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.707706652055812</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.380281025086555</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.910112359550562</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0216464366171006</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.06908013297843341</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.15430997450405</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.34359423201747</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.03516547700092</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.163874913936656</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0333046747927118</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-9.50418297322161</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>98</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.156623869863013</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-11.4247946889252</v>
+      </c>
+      <c r="M44" t="n">
+        <v>11.8695666904365</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.159820275370421</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.184149432773109</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-1.51505051542209</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.768220584954268</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-3.18597634555552</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.393807883351103</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3975</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0025946721311475</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0257944943250009</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0193014626817404</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.6527477059490679</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.264799404212504</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>99.66500000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.2256711409396</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-3.33482515402094</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.32980209716707</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.22979094059058</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.704247481502542</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.6575</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0319553805774277</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.298686745808834</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.303981094505969</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.564832179892668</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.172653997520041</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>103</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.887871179039302</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.22619702901711</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.615222626552881</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.862010853436216</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.337842392518714</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>102.165</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.241380094974278</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-1.01692199051643</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.571196857234983</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.236264958620152</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
+++ b/trend_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.865855935971432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H2" t="n">
-        <v>0.933333333333333</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-2.6485542049414</v>
       </c>
       <c r="L2" t="n">
-        <v>-9.589125525475319</v>
+        <v>-9.598873852895441</v>
       </c>
       <c r="M2" t="n">
-        <v>3.0334309793654</v>
+        <v>0.360128902874571</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-25.2243257613467</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.438653156969601</v>
+        <v>0.011135064979693</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.823529411764706</v>
+        <v>0.795918367346939</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>0.4</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0058300079808459</v>
+        <v>-0.0948701298701299</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0825522341744106</v>
+        <v>-0.205907282548745</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0632917784220553</v>
+        <v>-0.0149545637687529</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.45750199521149</v>
+        <v>-23.7175324675325</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9515309057858</v>
+        <v>0.035598444637626</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0.111750369324072</v>
+        <v>-0.120412087912088</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0040587132959227</v>
+        <v>-0.255943902857877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.219485372956597</v>
+        <v>-0.0199522651704232</v>
       </c>
       <c r="N4" t="n">
-        <v>1.05424876720823</v>
+        <v>-1.13596309351027</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.486923322191556</v>
+        <v>0.022791347634548</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0847457627118644</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0.355932203389831</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.013</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0012134551495016</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0012315399689645</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0010870535714285</v>
+        <v>0.002285577995832</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>9.33427038078201</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.630659983444727</v>
+        <v>0.419649917189518</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.847457627118644</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>-5.96326530612245</v>
+        <v>2.93963782696177</v>
       </c>
       <c r="L6" t="n">
-        <v>-59.7183847501999</v>
+        <v>-26.5145705058084</v>
       </c>
       <c r="M6" t="n">
-        <v>34.0181348797306</v>
+        <v>43.0925369875439</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.71057513914657</v>
+        <v>1.46981891348089</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.803611133857105</v>
+        <v>0.349471920965358</v>
       </c>
       <c r="G7" t="n">
-        <v>0.781818181818182</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="H7" t="n">
-        <v>0.236363636363636</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.972942032480528</v>
+        <v>0.975964678539247</v>
       </c>
       <c r="G8" t="n">
         <v>0.0847457627118644</v>
       </c>
       <c r="H8" t="n">
-        <v>0.186440677966102</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0003865079365079</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0008424081832141</v>
+        <v>-0.0006591341753313</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.73015873015873</v>
+        <v>-8.361950549450549</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.029297376869737</v>
+        <v>0.0083312472831073</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H9" t="n">
-        <v>0.915254237288136</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.33</v>
+        <v>0.388</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0375964762669043</v>
+        <v>0.0422264101975697</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0095585321449644</v>
+        <v>0.0176607702080203</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0543699691841129</v>
+        <v>0.07219396399022721</v>
       </c>
       <c r="N9" t="n">
-        <v>11.3928715960316</v>
+        <v>10.8830954117448</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.438670670926025</v>
+        <v>0.379258726955769</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.775862068965517</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1316,16 +1316,16 @@
         <v>7.57</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0039529220779219</v>
+        <v>-0.007562111801242</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.053467900693771</v>
+        <v>-0.0548685559397579</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0512159001444649</v>
+        <v>0.0344389374804486</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0522182573041214</v>
+        <v>-0.09989579658179749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0355984446376258</v>
+        <v>0.0045954753079115</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.932203389830508</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.345</v>
+        <v>0.395</v>
       </c>
       <c r="K11" t="n">
-        <v>0.035996609403255</v>
+        <v>0.0413132900817764</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0081215822982864</v>
+        <v>0.01986168938407</v>
       </c>
       <c r="M11" t="n">
-        <v>0.051373302498838</v>
+        <v>0.0720355110174246</v>
       </c>
       <c r="N11" t="n">
-        <v>10.4337998270304</v>
+        <v>10.4590607801966</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.790556525474899</v>
+        <v>9.9786141456432e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.186440677966102</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.576271186440678</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>0.59</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.64991103202847</v>
+        <v>0.073385984023239</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.76878725775864</v>
+        <v>0.0360680471739823</v>
       </c>
       <c r="M12" t="n">
-        <v>0.633974979811419</v>
+        <v>0.104484442023408</v>
       </c>
       <c r="N12" t="n">
-        <v>-7.22123368920522</v>
+        <v>12.4383023768202</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.280312179009581</v>
+        <v>0.0696407198224132</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.830508474576271</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.58</v>
+        <v>0.034</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0131711517249943</v>
+        <v>0.0032611607142857</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0198533300347238</v>
+        <v>-0.0004686571270345</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0473145511993179</v>
+        <v>0.008540082948558399</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2708882284473</v>
+        <v>9.59164915966387</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.715789965256469</v>
+        <v>0.0057699942451294</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.758620689655172</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.033</v>
+        <v>5.31</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0016393626570915</v>
+        <v>1.89674873059272</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0066148956682072</v>
+        <v>0.216241989617559</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002274680664963</v>
+        <v>4.94733550146438</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.96776562755019</v>
+        <v>35.7203150770756</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.913127989934886</v>
+        <v>0.0158716968417372</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0151515151515152</v>
       </c>
       <c r="H15" t="n">
-        <v>0.966101694915254</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>6.61</v>
+        <v>5.75</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.603314732142857</v>
+        <v>0.802747252747253</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.69866933220425</v>
+        <v>0.11099962515745</v>
       </c>
       <c r="M15" t="n">
-        <v>0.110436884724748</v>
+        <v>1.94283403273571</v>
       </c>
       <c r="N15" t="n">
-        <v>-9.127303058137031</v>
+        <v>13.9608217869087</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.168055087542107</v>
+        <v>0.0054183127405209</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.878378378378378</v>
+        <v>0.682926829268293</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>0.44</v>
       </c>
       <c r="K16" t="n">
-        <v>0.142989354395604</v>
+        <v>-0.0545369249394673</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.188063190706556</v>
+        <v>-0.0874131664759645</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09727387674199</v>
+        <v>-0.0171565475183893</v>
       </c>
       <c r="N16" t="n">
-        <v>2.04270506279435</v>
+        <v>-12.3947556680608</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.014642759784568</v>
+        <v>0.920852752092264</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0119047619047619</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.702380952380952</v>
+        <v>0.831932773109244</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.495</v>
+        <v>10.46</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0437969389505674</v>
+        <v>0.0248469387755106</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.08143360320817961</v>
+        <v>-0.0059991792332748</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.012008138173639</v>
+        <v>0.0590700808625342</v>
       </c>
       <c r="N17" t="n">
-        <v>-8.847866454660069</v>
+        <v>0.237542435712338</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0771077965911381</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0840336134453782</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.19327731092437</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.994379809876883</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.831932773109244</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.52</v>
+        <v>0.013</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0550125513464172</v>
+        <v>0.0002931380417335</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0175739786808569</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0845151998187324</v>
+        <v>0.0006286574870912</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5229329975895169</v>
+        <v>2.25490801333498</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.307534161555674</v>
+        <v>0.0736338795598571</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0840336134453782</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19327731092437</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.013</v>
+        <v>185</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>7.73015873015873</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002149537786952</v>
+        <v>-0.789080350081488</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0003998357963875</v>
+        <v>22.2905369722664</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.17846417846418</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0132334698463865</v>
+        <v>0.0574794785699607</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="H20" t="n">
-        <v>0.711864406779661</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>175</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>13.2657384987893</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.60782783713217</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>27.0062163665045</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5804219993082</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,40 +2283,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.249576127956346</v>
+        <v>0.940307799169806</v>
       </c>
       <c r="G21" t="n">
-        <v>0.842105263157895</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="H21" t="n">
-        <v>0.175438596491228</v>
+        <v>0.151260504201681</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.940085847942594</v>
+        <v>0.245918045649955</v>
       </c>
       <c r="G22" t="n">
-        <v>0.092436974789916</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="H22" t="n">
-        <v>0.159663865546218</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005</v>
+        <v>0.4116</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001248291182501</v>
+        <v>0.0026672752167959</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002508585164835</v>
+        <v>-0.0024575303897807</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0138207317039411</v>
       </c>
       <c r="N22" t="n">
-        <v>-2.49658236500342</v>
+        <v>0.648026048784253</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,46 +2465,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.13693165138425</v>
+        <v>0.408016187766294</v>
       </c>
       <c r="G23" t="n">
-        <v>0.100840336134454</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.865546218487395</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.368</v>
+        <v>7.57</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0038219972702456</v>
+        <v>-0.0017627895752896</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0159935725018629</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0122481791187591</v>
+        <v>0.0137830387005697</v>
       </c>
       <c r="N23" t="n">
-        <v>1.03858621474067</v>
+        <v>-0.0232865201491373</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.11983550555904</v>
+        <v>0.223781223525298</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H24" t="n">
-        <v>0.615384615384615</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.59</v>
+        <v>0.421</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0100045656890268</v>
+        <v>0.0031986863711001</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0267200740713797</v>
+        <v>-0.002484693877551</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0025005635081603</v>
+        <v>0.0143343393963113</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.131812459670972</v>
+        <v>0.75978298600954</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0906826343931066</v>
+        <v>0.0233124138798537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.882352941176471</v>
+        <v>0.722689075630252</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.395</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0051978653530377</v>
+        <v>0.0139408396946565</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0003977146463904</v>
+        <v>0.0016949149967549</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0127977162090666</v>
+        <v>0.0284228312138589</v>
       </c>
       <c r="N25" t="n">
-        <v>1.31591527925007</v>
+        <v>1.99154852780807</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.123453497812371</v>
+        <v>0.0382165618530866</v>
       </c>
       <c r="G26" t="n">
-        <v>0.109243697478992</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.445378151260504</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>0.034</v>
       </c>
       <c r="K26" t="n">
-        <v>0.332347588717015</v>
+        <v>0.0014837841740469</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0001791696161844</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01086764621546</v>
+        <v>0.0032219910471408</v>
       </c>
       <c r="N26" t="n">
-        <v>3.69275098574462</v>
+        <v>4.36407110013817</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0334301875878104</v>
+        <v>0.0447875792927558</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.781512605042017</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.59</v>
+        <v>7.02</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0116693290734824</v>
+        <v>0.377844827586207</v>
       </c>
       <c r="L27" t="n">
-        <v>9.79467301416876e-05</v>
+        <v>0.0100060820965928</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0199408553230209</v>
+        <v>1.11668030569996</v>
       </c>
       <c r="N27" t="n">
-        <v>1.977852385336</v>
+        <v>5.38240495137047</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0236657328512308</v>
+        <v>2.33082210826755e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0083333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.559322033898305</v>
+        <v>0.8</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0315</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0010900545257961</v>
+        <v>0.40479358309926</v>
       </c>
       <c r="L28" t="n">
-        <v>0.000244590209995</v>
+        <v>0.10038032919396</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0023785894728665</v>
+        <v>0.770440577406165</v>
       </c>
       <c r="N28" t="n">
-        <v>3.46049055808309</v>
+        <v>16.1917433239704</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.180328087029361</v>
+        <v>0.0032632973330749</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0229007633587786</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.5190839694656491</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>5.31</v>
+        <v>0.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0886051212938006</v>
+        <v>-0.0249419557497951</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0433232086949542</v>
+        <v>-0.0416612574297975</v>
       </c>
       <c r="M29" t="n">
-        <v>0.544229485376172</v>
+        <v>-0.009925766106291501</v>
       </c>
       <c r="N29" t="n">
-        <v>1.66864635204898</v>
+        <v>-4.98839114995903</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.89357412451604e-07</v>
+        <v>0.760273780643425</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.801724137931034</v>
+        <v>0.789772727272727</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.78</v>
+        <v>10.38</v>
       </c>
       <c r="K30" t="n">
-        <v>0.537523681853789</v>
+        <v>0.0130831226295828</v>
       </c>
       <c r="L30" t="n">
-        <v>0.160965394332828</v>
+        <v>-0.0127441527790831</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9555667113433201</v>
+        <v>0.0376618387807979</v>
       </c>
       <c r="N30" t="n">
-        <v>19.3353842393449</v>
+        <v>0.126041643830277</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.004690155454255</v>
+        <v>0.148554514505313</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0298507462686567</v>
+        <v>0.112359550561798</v>
       </c>
       <c r="H31" t="n">
-        <v>0.544776119402985</v>
+        <v>0.140449438202247</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.68</v>
+        <v>0.013</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0280345394736842</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0501630595066752</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0110866223249988</v>
+        <v>0.0003077693724635</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.12272639318885</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0155557531910261</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0112994350282486</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.706214689265537</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.8753471297007051</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.78735632183908</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>10.455</v>
+        <v>142</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0200211813190565</v>
+        <v>5.89827044502459</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0062555112848035</v>
+        <v>1.1453425707587</v>
       </c>
       <c r="M32" t="n">
-        <v>0.049978824947014</v>
+        <v>12.2494320179726</v>
       </c>
       <c r="N32" t="n">
-        <v>0.191498625720292</v>
+        <v>4.15371158100323</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,34 +3371,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.154852416839398</v>
+        <v>0.866056989852937</v>
       </c>
       <c r="G33" t="n">
-        <v>0.117977528089888</v>
+        <v>0.76878612716763</v>
       </c>
       <c r="H33" t="n">
-        <v>0.140449438202247</v>
+        <v>0.242774566473988</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002775048121263</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0126491643538297</v>
+        <v>0.34366682335964</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.201183431952663</v>
       </c>
       <c r="H34" t="n">
-        <v>0.711864406779661</v>
+        <v>0.118343195266272</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>142</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="n">
-        <v>6.68956043956044</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.35509628027412</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>12.4005955643355</v>
+        <v>8.33523505248745e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.71095805602848</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,43 +3553,43 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.860813250449554</v>
+        <v>0.512588939268828</v>
       </c>
       <c r="G35" t="n">
-        <v>0.783625730994152</v>
+        <v>0.0710059171597633</v>
       </c>
       <c r="H35" t="n">
-        <v>0.228070175438596</v>
+        <v>0.881656804733728</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.42</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0045991217383976</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0039928725722204</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.117880274051067</v>
+        <v>0.411832992002669</v>
       </c>
       <c r="G36" t="n">
-        <v>0.210191082802548</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.127388535031847</v>
+        <v>0.531428571428571</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004</v>
+        <v>7.57</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0010394177362588</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.009992101242926901</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001484428754647</v>
+        <v>0.008489545985587399</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.0137307494882279</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.71948178734323</v>
+        <v>0.819954718767899</v>
       </c>
       <c r="G37" t="n">
-        <v>0.075</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H37" t="n">
-        <v>0.88125</v>
+        <v>0.882022471910112</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4083</v>
+        <v>0.4285</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0007019248499286</v>
+        <v>-0.0024398482416284</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0069810753743514</v>
+        <v>-0.009041986833617101</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0029232754935277</v>
+        <v>0.0020047772737611</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.171913997043513</v>
+        <v>-0.569392821850268</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.583544681077155</v>
+        <v>0.743305898278398</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.554913294797688</v>
+        <v>0.679775280898876</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.57</v>
+        <v>0.705</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0011787613429523</v>
+        <v>-0.0033129585584132</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0077819381251139</v>
+        <v>-0.009999894172327</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0106359985719401</v>
+        <v>0.0045343221237478</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0155714840548532</v>
+        <v>-0.469923199774934</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.684168175778247</v>
+        <v>0.126657694602638</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0168539325842697</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.887640449438202</v>
+        <v>0.502824858757062</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.404</v>
+        <v>0.034</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0009012673156698</v>
+        <v>0.0004568502640672</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0064766546239559</v>
+        <v>-0.0001664803958445</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0031673893199452</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.223085969225208</v>
+        <v>1.34367724725673</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.816142221427297</v>
+        <v>0.275930413262597</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.685393258426966</v>
+        <v>0.915730337078652</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.905</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0036690749084005</v>
+        <v>0.0545128010287584</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.010425504810685</v>
+        <v>-0.0660156544901073</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0032681688829578</v>
+        <v>0.249651756888683</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.531749986724714</v>
+        <v>0.789468515984916</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.227405570267116</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.491525423728814</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.032</v>
+        <v>0.37</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0002264661286578</v>
+        <v>0.0384215286785855</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0002484609657059</v>
+        <v>-0.133330937505763</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0007477935581043</v>
+        <v>0.08222868673352569</v>
       </c>
       <c r="N41" t="n">
-        <v>0.707706652055812</v>
+        <v>10.3841969401583</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.380281025086555</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.910112359550562</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.3</v>
+        <v>98</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0216464366171006</v>
+        <v>11.7340634986245</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.06908013297843341</v>
+        <v>-6.56994586753986</v>
       </c>
       <c r="M42" t="n">
-        <v>0.15430997450405</v>
+        <v>12.2908789517445</v>
       </c>
       <c r="N42" t="n">
-        <v>0.34359423201747</v>
+        <v>11.9735341822699</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,11 +4259,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.231216363225238</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.37</v>
+        <v>5.88</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.03516547700092</v>
+        <v>0.299242895864424</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.163874913936656</v>
+        <v>-1.30572592645849</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0333046747927118</v>
+        <v>1.09144980798862</v>
       </c>
       <c r="N43" t="n">
-        <v>-9.50418297322161</v>
+        <v>5.08916489565346</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,31 +4371,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.5357779792497041</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98</v>
+        <v>0.421</v>
       </c>
       <c r="K44" t="n">
-        <v>0.156623869863013</v>
+        <v>0.0011690672153635</v>
       </c>
       <c r="L44" t="n">
-        <v>-11.4247946889252</v>
+        <v>-0.0257944943250009</v>
       </c>
       <c r="M44" t="n">
-        <v>11.8695666904365</v>
+        <v>0.018357576374298</v>
       </c>
       <c r="N44" t="n">
-        <v>0.159820275370421</v>
+        <v>0.277688174670668</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.40324797025367</v>
+        <v>0.79051913742033</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.78</v>
+        <v>99.66500000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.184149432773109</v>
+        <v>1.42564402810304</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.51505051542209</v>
+        <v>-1.44909701349755</v>
       </c>
       <c r="M45" t="n">
-        <v>0.768220584954268</v>
+        <v>3.29410175040594</v>
       </c>
       <c r="N45" t="n">
-        <v>-3.18597634555552</v>
+        <v>1.43043598866507</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,31 +4545,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.393807883351103</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3975</v>
+        <v>5.7625</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0025946721311475</v>
+        <v>0.045593621399177</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0257944943250009</v>
+        <v>-0.298686745808834</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0193014626817404</v>
+        <v>0.342370285041552</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.6527477059490679</v>
+        <v>0.791212518857736</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4625,11 +4617,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4640,31 +4632,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.264799404212504</v>
+        <v>0.565323878816037</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>99.66500000000001</v>
+        <v>0.4005</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.2256711409396</v>
+        <v>0.0004535013657809</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.33482515402094</v>
+        <v>-0.0050451621261081</v>
       </c>
       <c r="M47" t="n">
-        <v>1.32980209716707</v>
+        <v>0.0127255960385663</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.22979094059058</v>
+        <v>0.113233799196249</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4673,7 +4665,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4712,11 +4704,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,31 +4719,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.704247481502542</v>
+        <v>0.159958867483246</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.6575</v>
+        <v>103</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0319553805774277</v>
+        <v>-0.887871179039302</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.298686745808834</v>
+        <v>-2.22604857543107</v>
       </c>
       <c r="M48" t="n">
-        <v>0.303981094505969</v>
+        <v>0.253720102334911</v>
       </c>
       <c r="N48" t="n">
-        <v>0.564832179892668</v>
+        <v>-0.862010853436216</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4799,7 +4791,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4814,31 +4806,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.172653997520041</v>
+        <v>0.628721589036711</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>103</v>
+        <v>5.7625</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.887871179039302</v>
+        <v>0.019329184633477</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.22619702901711</v>
+        <v>-0.102374032220243</v>
       </c>
       <c r="M49" t="n">
-        <v>0.615222626552881</v>
+        <v>0.190325914098646</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.862010853436216</v>
+        <v>0.335430535938864</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4839,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4897,11 +4889,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.337842392518714</v>
+        <v>0.469720004017499</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4913,19 +4905,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>102.165</v>
+        <v>103</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.241380094974278</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.01692199051643</v>
+        <v>-1.01041546310524</v>
       </c>
       <c r="M50" t="n">
-        <v>0.571196857234983</v>
+        <v>1.00210321431887</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.236264958620152</v>
+        <v>0</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>

--- a/trend_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
+++ b/trend_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -151,40 +151,43 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Palmerston North City</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,31 +669,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.865855935971432</v>
+        <v>0.982870824330359</v>
       </c>
       <c r="G2">
-        <v>0.0357142857142857</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H2">
-        <v>0.892857142857143</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="K2">
-        <v>-2.6485542049414</v>
+        <v>-3.41167582417582</v>
       </c>
       <c r="L2">
-        <v>-9.598873852895441</v>
+        <v>-7.25512156103557</v>
       </c>
       <c r="M2">
-        <v>0.360128902874571</v>
+        <v>-0.570702677219468</v>
       </c>
       <c r="N2">
-        <v>-25.2243257613467</v>
+        <v>-36.8829818829819</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -705,19 +708,19 @@
         <v>5527495</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,31 +740,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.011135064979693</v>
+        <v>0.011069100048578</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.795918367346939</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4</v>
+        <v>0.305</v>
       </c>
       <c r="K3">
-        <v>-0.0948701298701299</v>
+        <v>-0.0732330827067669</v>
       </c>
       <c r="L3">
-        <v>-0.205907282548745</v>
+        <v>-0.17730024738173</v>
       </c>
       <c r="M3">
-        <v>-0.0149545637687529</v>
+        <v>-0.018223546031733</v>
       </c>
       <c r="N3">
-        <v>-23.7175324675325</v>
+        <v>-24.0108467891039</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -776,19 +779,19 @@
         <v>5527495</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -808,7 +811,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.035598444637626</v>
+        <v>0.000347007256425</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -820,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.6</v>
+        <v>10.39</v>
       </c>
       <c r="K4">
-        <v>-0.120412087912088</v>
+        <v>-0.162221840659341</v>
       </c>
       <c r="L4">
-        <v>-0.255943902857877</v>
+        <v>-0.292377427592993</v>
       </c>
       <c r="M4">
-        <v>-0.0199522651704232</v>
+        <v>-0.0792708643761585</v>
       </c>
       <c r="N4">
-        <v>-1.13596309351027</v>
+        <v>-1.56132666659616</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -847,19 +850,19 @@
         <v>5527495</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,7 +882,7 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.022791347634548</v>
+        <v>0.284226474077516</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -891,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K5">
-        <v>0.0012134551495016</v>
+        <v>0.0002415674603174</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0006794460657711</v>
       </c>
       <c r="M5">
-        <v>0.002285577995832</v>
+        <v>0.0012480258496458</v>
       </c>
       <c r="N5">
-        <v>9.33427038078201</v>
+        <v>2.19606782106782</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>1823088</v>
@@ -918,19 +921,19 @@
         <v>5527495</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,43 +947,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.419649917189518</v>
+        <v>0.741998532278207</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.830508474576271</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K6">
-        <v>2.93963782696177</v>
+        <v>-10.0012818546635</v>
       </c>
       <c r="L6">
-        <v>-26.5145705058084</v>
+        <v>-50.3873642577606</v>
       </c>
       <c r="M6">
-        <v>43.0925369875439</v>
+        <v>13.912348282234</v>
       </c>
       <c r="N6">
-        <v>1.46981891348089</v>
+        <v>-5.26383255508605</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1823088</v>
@@ -989,19 +992,19 @@
         <v>5527495</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1021,13 +1024,13 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.349471920965358</v>
+        <v>0.0083567168730816</v>
       </c>
       <c r="G7">
-        <v>0.779661016949153</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="H7">
-        <v>0.23728813559322</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1051,7 +1054,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q7">
         <v>1823088</v>
@@ -1060,19 +1063,19 @@
         <v>5527495</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1092,10 +1095,10 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.975964678539247</v>
+        <v>0.999986278602312</v>
       </c>
       <c r="G8">
-        <v>0.0847457627118644</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="H8">
         <v>0.169491525423729</v>
@@ -1104,25 +1107,25 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.000334478021978</v>
+        <v>-0.000748974709501</v>
       </c>
       <c r="L8">
-        <v>-0.0006591341753313</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="N8">
-        <v>-8.361950549450549</v>
+        <v>-24.9658236500342</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>1823088</v>
@@ -1131,19 +1134,19 @@
         <v>5527495</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1163,37 +1166,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0083312472831073</v>
+        <v>0.213639453085988</v>
       </c>
       <c r="G9">
-        <v>0.0508474576271186</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H9">
-        <v>0.949152542372881</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.388</v>
+        <v>0.303</v>
       </c>
       <c r="K9">
-        <v>0.0422264101975697</v>
+        <v>0.009301369682948601</v>
       </c>
       <c r="L9">
-        <v>0.0176607702080203</v>
+        <v>-0.0122013718065073</v>
       </c>
       <c r="M9">
-        <v>0.07219396399022721</v>
+        <v>0.0403779999909627</v>
       </c>
       <c r="N9">
-        <v>10.8830954117448</v>
+        <v>3.06975897127017</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>1823088</v>
@@ -1202,19 +1205,19 @@
         <v>5527495</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1234,37 +1237,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.379258726955769</v>
+        <v>0.888132596787915</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.813559322033898</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.57</v>
+        <v>7.71</v>
       </c>
       <c r="K10">
-        <v>-0.007562111801242</v>
+        <v>0.0369405815423515</v>
       </c>
       <c r="L10">
-        <v>-0.0548685559397579</v>
+        <v>-0.0138169015864144</v>
       </c>
       <c r="M10">
-        <v>0.0344389374804486</v>
+        <v>0.08850772062834519</v>
       </c>
       <c r="N10">
-        <v>-0.09989579658179749</v>
+        <v>0.479125571236725</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>1823088</v>
@@ -1273,16 +1276,16 @@
         <v>5527495</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1302,37 +1305,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0045954753079115</v>
+        <v>0.281341927597306</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.395</v>
+        <v>0.327</v>
       </c>
       <c r="K11">
-        <v>0.0413132900817764</v>
+        <v>0.0127937843406593</v>
       </c>
       <c r="L11">
-        <v>0.01986168938407</v>
+        <v>-0.0130183433146511</v>
       </c>
       <c r="M11">
-        <v>0.0720355110174246</v>
+        <v>0.0429324419714828</v>
       </c>
       <c r="N11">
-        <v>10.4590607801966</v>
+        <v>3.91247227543099</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1823088</v>
@@ -1341,19 +1344,19 @@
         <v>5527495</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1373,37 +1376,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>9.9786141456432E-05</v>
+        <v>0.280312179009581</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.830508474576271</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="K12">
-        <v>0.073385984023239</v>
+        <v>0.021268961301856</v>
       </c>
       <c r="L12">
-        <v>0.0360680471739823</v>
+        <v>-0.0100343406593406</v>
       </c>
       <c r="M12">
-        <v>0.104484442023408</v>
+        <v>0.0802747252747253</v>
       </c>
       <c r="N12">
-        <v>12.4383023768202</v>
+        <v>3.66706229342346</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q12">
         <v>1823088</v>
@@ -1412,19 +1415,19 @@
         <v>5527495</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,43 +1441,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0696407198224132</v>
+        <v>0.305785100884614</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.76271186440678</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="K13">
-        <v>0.0032611607142857</v>
+        <v>0.0008756042477259</v>
       </c>
       <c r="L13">
-        <v>-0.0004686571270345</v>
+        <v>-0.0022036498932682</v>
       </c>
       <c r="M13">
-        <v>0.008540082948558399</v>
+        <v>0.0049435996041674</v>
       </c>
       <c r="N13">
-        <v>9.59164915966387</v>
+        <v>2.91868082575319</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1823088</v>
@@ -1483,19 +1486,19 @@
         <v>5527495</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1515,37 +1518,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.0057699942451294</v>
+        <v>0.0648172904395064</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.31</v>
+        <v>5.23</v>
       </c>
       <c r="K14">
-        <v>1.89674873059272</v>
+        <v>0.6585036057692299</v>
       </c>
       <c r="L14">
-        <v>0.216241989617559</v>
+        <v>-0.226539007841297</v>
       </c>
       <c r="M14">
-        <v>4.94733550146438</v>
+        <v>1.39478147870517</v>
       </c>
       <c r="N14">
-        <v>35.7203150770756</v>
+        <v>12.5908911236947</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q14">
         <v>1823088</v>
@@ -1554,19 +1557,19 @@
         <v>5527495</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1586,37 +1589,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0158716968417372</v>
+        <v>0.178457615047358</v>
       </c>
       <c r="G15">
-        <v>0.0151515151515152</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="H15">
-        <v>0.893939393939394</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>0.802747252747253</v>
+        <v>0.199666048297082</v>
       </c>
       <c r="L15">
-        <v>0.11099962515745</v>
+        <v>-0.095543815907994</v>
       </c>
       <c r="M15">
-        <v>1.94283403273571</v>
+        <v>1.10252727205888</v>
       </c>
       <c r="N15">
-        <v>13.9608217869087</v>
+        <v>2.85237211852974</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1823088</v>
@@ -1625,19 +1628,19 @@
         <v>5527495</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1657,31 +1660,31 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.0054183127405209</v>
+        <v>0.002513566913221</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.682926829268293</v>
+        <v>0.674698795180723</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>-0.0545369249394673</v>
+        <v>-0.0528606442577031</v>
       </c>
       <c r="L16">
-        <v>-0.0874131664759645</v>
+        <v>-0.0821040610638156</v>
       </c>
       <c r="M16">
-        <v>-0.0171565475183893</v>
+        <v>-0.0179806997450137</v>
       </c>
       <c r="N16">
-        <v>-12.3947556680608</v>
+        <v>-13.2151610644258</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
@@ -1696,19 +1699,19 @@
         <v>5527495</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1728,13 +1731,13 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.920852752092264</v>
+        <v>0.396944088433843</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.831932773109244</v>
+        <v>0.8067226890756301</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1743,22 +1746,22 @@
         <v>10.46</v>
       </c>
       <c r="K17">
-        <v>0.0248469387755106</v>
+        <v>-0.0066895604395603</v>
       </c>
       <c r="L17">
-        <v>-0.0059991792332748</v>
+        <v>-0.04555273762396</v>
       </c>
       <c r="M17">
-        <v>0.0590700808625342</v>
+        <v>0.0248286447124378</v>
       </c>
       <c r="N17">
-        <v>0.237542435712338</v>
+        <v>-0.06395373269178101</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17">
         <v>1823088</v>
@@ -1767,19 +1770,19 @@
         <v>5527495</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,19 +1796,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.0771077965911381</v>
+        <v>0.673464718181579</v>
       </c>
       <c r="G18">
-        <v>0.0840336134453782</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="H18">
-        <v>0.19327731092437</v>
+        <v>0.184873949579832</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1814,22 +1817,22 @@
         <v>0.013</v>
       </c>
       <c r="K18">
-        <v>0.0002931380417335</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0004284136615732</v>
       </c>
       <c r="M18">
-        <v>0.0006286574870912</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="N18">
-        <v>2.25490801333498</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1823088</v>
@@ -1838,19 +1841,19 @@
         <v>5527495</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,40 +1870,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>0.0736338795598571</v>
+        <v>0.357479866556757</v>
       </c>
       <c r="G19">
         <v>0.0169491525423729</v>
       </c>
       <c r="H19">
-        <v>0.728813559322034</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K19">
-        <v>7.73015873015873</v>
+        <v>1.47397094430993</v>
       </c>
       <c r="L19">
-        <v>-0.789080350081488</v>
+        <v>-6.64532370235912</v>
       </c>
       <c r="M19">
-        <v>22.2905369722664</v>
+        <v>11.5633392037525</v>
       </c>
       <c r="N19">
-        <v>4.17846417846418</v>
+        <v>0.842269111034244</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q19">
         <v>1823088</v>
@@ -1909,19 +1912,19 @@
         <v>5527495</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1941,13 +1944,13 @@
         <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0574794785699607</v>
+        <v>0.0604684949624014</v>
       </c>
       <c r="G20">
-        <v>0.826086956521739</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="H20">
-        <v>0.191304347826087</v>
+        <v>0.234782608695652</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1971,7 +1974,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>1823088</v>
@@ -1980,19 +1983,19 @@
         <v>5527495</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2012,13 +2015,13 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>0.940307799169806</v>
+        <v>0.999981350564999</v>
       </c>
       <c r="G21">
-        <v>0.100840336134454</v>
+        <v>0.159663865546218</v>
       </c>
       <c r="H21">
-        <v>0.151260504201681</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2027,22 +2030,22 @@
         <v>0.004</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="L21">
-        <v>-0.000332347588717</v>
+        <v>-0.000500315283416</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0002005903083231</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-8.361950549450549</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1823088</v>
@@ -2051,19 +2054,19 @@
         <v>5527495</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2083,10 +2086,10 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.245918045649955</v>
+        <v>0.776948422532161</v>
       </c>
       <c r="G22">
-        <v>0.0840336134453782</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H22">
         <v>0.882352941176471</v>
@@ -2095,25 +2098,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.4116</v>
+        <v>0.388</v>
       </c>
       <c r="K22">
-        <v>0.0026672752167959</v>
+        <v>-0.0025989326765188</v>
       </c>
       <c r="L22">
-        <v>-0.0024575303897807</v>
+        <v>-0.0134681279225287</v>
       </c>
       <c r="M22">
-        <v>0.0138207317039411</v>
+        <v>0.0026158848668844</v>
       </c>
       <c r="N22">
-        <v>0.648026048784253</v>
+        <v>-0.669828009412082</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1823088</v>
@@ -2122,19 +2125,19 @@
         <v>5527495</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2154,37 +2157,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.408016187766294</v>
+        <v>0.889026732113348</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.610169491525424</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.57</v>
+        <v>7.62</v>
       </c>
       <c r="K23">
-        <v>-0.0017627895752896</v>
+        <v>0.0116992312620115</v>
       </c>
       <c r="L23">
-        <v>-0.0159935725018629</v>
+        <v>-0.003600002975272</v>
       </c>
       <c r="M23">
-        <v>0.0137830387005697</v>
+        <v>0.0272830877395603</v>
       </c>
       <c r="N23">
-        <v>-0.0232865201491373</v>
+        <v>0.153533218661568</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1823088</v>
@@ -2193,16 +2196,16 @@
         <v>5527495</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,40 +2222,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0.223781223525298</v>
+        <v>0.8399287383392</v>
       </c>
       <c r="G24">
         <v>0.0252100840336134</v>
       </c>
       <c r="H24">
-        <v>0.873949579831933</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.421</v>
+        <v>0.415</v>
       </c>
       <c r="K24">
-        <v>0.0031986863711001</v>
+        <v>-0.0038856382978723</v>
       </c>
       <c r="L24">
-        <v>-0.002484693877551</v>
+        <v>-0.0156721488356051</v>
       </c>
       <c r="M24">
-        <v>0.0143343393963113</v>
+        <v>0.0013318792220933</v>
       </c>
       <c r="N24">
-        <v>0.75978298600954</v>
+        <v>-0.936298385029478</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1823088</v>
@@ -2261,19 +2264,19 @@
         <v>5527495</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2293,37 +2296,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.0233124138798537</v>
+        <v>0.406831857883396</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.722689075630252</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7</v>
+        <v>0.694</v>
       </c>
       <c r="K25">
-        <v>0.0139408396946565</v>
+        <v>0.0012512846865364</v>
       </c>
       <c r="L25">
-        <v>0.0016949149967549</v>
+        <v>-0.0099949704391011</v>
       </c>
       <c r="M25">
-        <v>0.0284228312138589</v>
+        <v>0.0100928216479566</v>
       </c>
       <c r="N25">
-        <v>1.99154852780807</v>
+        <v>0.180300387109003</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q25">
         <v>1823088</v>
@@ -2332,19 +2335,19 @@
         <v>5527495</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2364,37 +2367,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0382165618530866</v>
+        <v>0.468383926011026</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.576271186440678</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="K26">
-        <v>0.0014837841740469</v>
+        <v>9.95774263904036E-05</v>
       </c>
       <c r="L26">
-        <v>0.0001791696161844</v>
+        <v>-0.0008556215900928</v>
       </c>
       <c r="M26">
-        <v>0.0032219910471408</v>
+        <v>0.0013835197684544</v>
       </c>
       <c r="N26">
-        <v>4.36407110013817</v>
+        <v>0.311179457470011</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q26">
         <v>1823088</v>
@@ -2403,19 +2406,19 @@
         <v>5527495</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2435,37 +2438,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0447875792927558</v>
+        <v>0.148162375904009</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9411764705882349</v>
+        <v>0.966386554621849</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7.02</v>
+        <v>6.61</v>
       </c>
       <c r="K27">
-        <v>0.377844827586207</v>
+        <v>0.193920361247947</v>
       </c>
       <c r="L27">
-        <v>0.0100060820965928</v>
+        <v>-0.0986153120162095</v>
       </c>
       <c r="M27">
-        <v>1.11668030569996</v>
+        <v>0.637296721440035</v>
       </c>
       <c r="N27">
-        <v>5.38240495137047</v>
+        <v>2.93374222765427</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q27">
         <v>1823088</v>
@@ -2474,19 +2477,19 @@
         <v>5527495</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2506,31 +2509,31 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>2.33082210826755E-06</v>
+        <v>3.44020945853356E-05</v>
       </c>
       <c r="G28">
-        <v>0.0083333333333333</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H28">
-        <v>0.8</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>2.5</v>
+        <v>2.225</v>
       </c>
       <c r="K28">
-        <v>0.40479358309926</v>
+        <v>0.2783411055505</v>
       </c>
       <c r="L28">
-        <v>0.10038032919396</v>
+        <v>0.0806328576155438</v>
       </c>
       <c r="M28">
-        <v>0.770440577406165</v>
+        <v>0.587102138422777</v>
       </c>
       <c r="N28">
-        <v>16.1917433239704</v>
+        <v>12.5097126090113</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
@@ -2545,19 +2548,19 @@
         <v>5527495</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2577,31 +2580,31 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.0032632973330749</v>
+        <v>0.001249614601131</v>
       </c>
       <c r="G29">
-        <v>0.0229007633587786</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="H29">
-        <v>0.5190839694656491</v>
+        <v>0.53968253968254</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="K29">
-        <v>-0.0249419557497951</v>
+        <v>-0.025045778402907</v>
       </c>
       <c r="L29">
-        <v>-0.0416612574297975</v>
+        <v>-0.0429044392310116</v>
       </c>
       <c r="M29">
-        <v>-0.009925766106291501</v>
+        <v>-0.0127921577743426</v>
       </c>
       <c r="N29">
-        <v>-4.98839114995903</v>
+        <v>-5.3288890218951</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
@@ -2616,19 +2619,19 @@
         <v>5527495</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2648,37 +2651,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.760273780643425</v>
+        <v>0.881999503317784</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.789772727272727</v>
+        <v>0.768361581920904</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.38</v>
+        <v>10.27</v>
       </c>
       <c r="K30">
-        <v>0.0130831226295828</v>
+        <v>0.0169158147180686</v>
       </c>
       <c r="L30">
-        <v>-0.0127441527790831</v>
+        <v>-0.0062446670771655</v>
       </c>
       <c r="M30">
-        <v>0.0376618387807979</v>
+        <v>0.0402468845190748</v>
       </c>
       <c r="N30">
-        <v>0.126041643830277</v>
+        <v>0.164710951490444</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q30">
         <v>1823088</v>
@@ -2687,19 +2690,19 @@
         <v>5527495</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2719,10 +2722,10 @@
         <v>42</v>
       </c>
       <c r="F31">
-        <v>0.148554514505313</v>
+        <v>0.351344493516675</v>
       </c>
       <c r="G31">
-        <v>0.112359550561798</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="H31">
         <v>0.140449438202247</v>
@@ -2737,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-8.39729054704726E-05</v>
       </c>
       <c r="M31">
-        <v>0.0003077693724635</v>
+        <v>0.000221189837454</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2758,19 +2761,19 @@
         <v>5527495</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,19 +2787,19 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.0155557531910261</v>
+        <v>0.0317048872021003</v>
       </c>
       <c r="G32">
         <v>0.0112994350282486</v>
       </c>
       <c r="H32">
-        <v>0.706214689265537</v>
+        <v>0.740112994350282</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2805,16 +2808,16 @@
         <v>142</v>
       </c>
       <c r="K32">
-        <v>5.89827044502459</v>
+        <v>4.71806239737274</v>
       </c>
       <c r="L32">
-        <v>1.1453425707587</v>
+        <v>0.24207606703889</v>
       </c>
       <c r="M32">
-        <v>12.2494320179726</v>
+        <v>11.1297601396115</v>
       </c>
       <c r="N32">
-        <v>4.15371158100323</v>
+        <v>3.32257915307939</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
@@ -2829,19 +2832,19 @@
         <v>5527495</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2861,13 +2864,13 @@
         <v>41</v>
       </c>
       <c r="F33">
-        <v>0.866056989852937</v>
+        <v>0.786099534792042</v>
       </c>
       <c r="G33">
-        <v>0.76878612716763</v>
+        <v>0.751445086705202</v>
       </c>
       <c r="H33">
-        <v>0.242774566473988</v>
+        <v>0.260115606936416</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2891,7 +2894,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1823088</v>
@@ -2900,19 +2903,19 @@
         <v>5527495</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2932,13 +2935,13 @@
         <v>42</v>
       </c>
       <c r="F34">
-        <v>0.34366682335964</v>
+        <v>0.933989135562235</v>
       </c>
       <c r="G34">
-        <v>0.201183431952663</v>
+        <v>0.213483146067416</v>
       </c>
       <c r="H34">
-        <v>0.118343195266272</v>
+        <v>0.112359550561798</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2950,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-0.0001429549902152</v>
       </c>
       <c r="M34">
-        <v>8.33523505248745E-05</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2962,7 +2965,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q34">
         <v>1823088</v>
@@ -2971,19 +2974,19 @@
         <v>5527495</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3000,40 +3003,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>0.512588939268828</v>
+        <v>0.9392131135365021</v>
       </c>
       <c r="G35">
-        <v>0.0710059171597633</v>
+        <v>0.06741573033707859</v>
       </c>
       <c r="H35">
-        <v>0.881656804733728</v>
+        <v>0.8764044943820229</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.42</v>
+        <v>0.4045</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-0.003684961589134</v>
       </c>
       <c r="L35">
-        <v>-0.0045991217383976</v>
+        <v>-0.0102778935983426</v>
       </c>
       <c r="M35">
-        <v>0.0039928725722204</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-0.910991740206195</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q35">
         <v>1823088</v>
@@ -3042,19 +3045,19 @@
         <v>5527495</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3074,37 +3077,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.411832992002669</v>
+        <v>0.344173897478386</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.531428571428571</v>
+        <v>0.525714285714286</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.57</v>
+        <v>7.62</v>
       </c>
       <c r="K36">
-        <v>-0.0010394177362588</v>
+        <v>-0.0022478806734704</v>
       </c>
       <c r="L36">
-        <v>-0.009992101242926901</v>
+        <v>-0.0100055037000329</v>
       </c>
       <c r="M36">
-        <v>0.008489545985587399</v>
+        <v>0.0076030693610182</v>
       </c>
       <c r="N36">
-        <v>-0.0137307494882279</v>
+        <v>-0.0294997463710034</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q36">
         <v>1823088</v>
@@ -3113,16 +3116,16 @@
         <v>5527495</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3142,7 +3145,7 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.819954718767899</v>
+        <v>0.946571462566777</v>
       </c>
       <c r="G37">
         <v>0.0168539325842697</v>
@@ -3154,25 +3157,25 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.4285</v>
+        <v>0.419</v>
       </c>
       <c r="K37">
-        <v>-0.0024398482416284</v>
+        <v>-0.0042962876525061</v>
       </c>
       <c r="L37">
-        <v>-0.009041986833617101</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M37">
-        <v>0.0020047772737611</v>
+        <v>0.0002506479384347</v>
       </c>
       <c r="N37">
-        <v>-0.569392821850268</v>
+        <v>-1.02536698150504</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q37">
         <v>1823088</v>
@@ -3181,19 +3184,19 @@
         <v>5527495</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3213,37 +3216,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.743305898278398</v>
+        <v>0.834797888373511</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.679775280898876</v>
+        <v>0.662921348314607</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.705</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="K38">
-        <v>-0.0033129585584132</v>
+        <v>-0.0040639378627585</v>
       </c>
       <c r="L38">
-        <v>-0.009999894172327</v>
+        <v>-0.0100022820629849</v>
       </c>
       <c r="M38">
-        <v>0.0045343221237478</v>
+        <v>0.0029460605767666</v>
       </c>
       <c r="N38">
-        <v>-0.469923199774934</v>
+        <v>-0.58727425762407</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q38">
         <v>1823088</v>
@@ -3252,19 +3255,19 @@
         <v>5527495</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3284,31 +3287,31 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.126657694602638</v>
+        <v>0.413075659310455</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.502824858757062</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="K39">
-        <v>0.0004568502640672</v>
+        <v>0.0001177747169044</v>
       </c>
       <c r="L39">
-        <v>-0.0001664803958445</v>
+        <v>-0.0004182215476554</v>
       </c>
       <c r="M39">
-        <v>0.001003434065934</v>
+        <v>0.0007474846121380999</v>
       </c>
       <c r="N39">
-        <v>1.34367724725673</v>
+        <v>0.368045990326512</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
@@ -3323,19 +3326,19 @@
         <v>5527495</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3355,7 +3358,7 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.275930413262597</v>
+        <v>0.28571357516434</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3367,25 +3370,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>6.905</v>
+        <v>6.5</v>
       </c>
       <c r="K40">
-        <v>0.0545128010287584</v>
+        <v>0.0500264561087258</v>
       </c>
       <c r="L40">
-        <v>-0.0660156544901073</v>
+        <v>-0.0760855237434595</v>
       </c>
       <c r="M40">
-        <v>0.249651756888683</v>
+        <v>0.213781134603044</v>
       </c>
       <c r="N40">
-        <v>0.789468515984916</v>
+        <v>0.769637786288089</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q40">
         <v>1823088</v>
@@ -3394,19 +3397,19 @@
         <v>5527495</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3414,49 +3417,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.768783636774762</v>
+        <v>0.304012449832241</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.765</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.37</v>
+        <v>10.385</v>
       </c>
       <c r="K41">
-        <v>0.0384215286785855</v>
+        <v>-0.0062489396725954</v>
       </c>
       <c r="L41">
-        <v>-0.133330937505763</v>
+        <v>-0.0298978855890484</v>
       </c>
       <c r="M41">
-        <v>0.08222868673352569</v>
+        <v>0.0149794941900206</v>
       </c>
       <c r="N41">
-        <v>10.3841969401583</v>
+        <v>-0.0601727460047709</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="Q41">
         <v>1823088</v>
@@ -3465,16 +3468,19 @@
         <v>5527495</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W41" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3482,49 +3488,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F42">
-        <v>0.889664319040077</v>
+        <v>0.222640312266939</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.11214953271028</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.126168224299065</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>98</v>
+        <v>0.012</v>
       </c>
       <c r="K42">
-        <v>11.7340634986245</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-6.56994586753986</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>12.2908789517445</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="N42">
-        <v>11.9735341822699</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q42">
         <v>1823088</v>
@@ -3533,16 +3539,19 @@
         <v>5527495</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W42" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3550,49 +3559,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.59675202974633</v>
+        <v>0.0904762827150927</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.723004694835681</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>5.88</v>
+        <v>142</v>
       </c>
       <c r="K43">
-        <v>0.299242895864424</v>
+        <v>2.41796304065393</v>
       </c>
       <c r="L43">
-        <v>-1.30572592645849</v>
+        <v>-0.446398935581307</v>
       </c>
       <c r="M43">
-        <v>1.09144980798862</v>
+        <v>6.1961164828482</v>
       </c>
       <c r="N43">
-        <v>5.08916489565346</v>
+        <v>1.70279087369995</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q43">
         <v>1823088</v>
@@ -3601,16 +3610,19 @@
         <v>5527495</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W43" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3618,49 +3630,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>0.5357779792497041</v>
+        <v>0.67178497035465</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.7584541062801931</v>
       </c>
       <c r="H44">
-        <v>0.9</v>
+        <v>0.256038647342995</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>0.421</v>
+        <v>0.005</v>
       </c>
       <c r="K44">
-        <v>0.0011690672153635</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>-0.0257944943250009</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0.018357576374298</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>0.277688174670668</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q44">
         <v>1823088</v>
@@ -3669,16 +3681,19 @@
         <v>5527495</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3686,43 +3701,43 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.79051913742033</v>
+        <v>0.951377659387376</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.0612244897959184</v>
       </c>
       <c r="H45">
-        <v>0.9</v>
+        <v>0.872448979591837</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>99.66500000000001</v>
+        <v>0.4083</v>
       </c>
       <c r="K45">
-        <v>1.42564402810304</v>
+        <v>-0.0031085899136075</v>
       </c>
       <c r="L45">
-        <v>-1.44909701349755</v>
+        <v>-0.0086975322613826</v>
       </c>
       <c r="M45">
-        <v>3.29410175040594</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1.43043598866507</v>
+        <v>-0.761349476759128</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
@@ -3737,16 +3752,19 @@
         <v>5527495</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W45" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3754,49 +3772,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.762862824616335</v>
+        <v>0.568125293085958</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.5071770334928229</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>5.7625</v>
+        <v>7.62</v>
       </c>
       <c r="K46">
-        <v>0.045593621399177</v>
+        <v>0.0008321941216677</v>
       </c>
       <c r="L46">
-        <v>-0.298686745808834</v>
+        <v>-0.0055144880855732</v>
       </c>
       <c r="M46">
-        <v>0.342370285041552</v>
+        <v>0.00887625238846</v>
       </c>
       <c r="N46">
-        <v>0.791212518857736</v>
+        <v>0.0109211826990523</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q46">
         <v>1823088</v>
@@ -3805,16 +3823,16 @@
         <v>5527495</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3822,49 +3840,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.565323878816037</v>
+        <v>0.943573574368436</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.014018691588785</v>
       </c>
       <c r="H47">
-        <v>0.928571428571429</v>
+        <v>0.869158878504673</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0.4005</v>
+        <v>0.4115</v>
       </c>
       <c r="K47">
-        <v>0.0004535013657809</v>
+        <v>-0.003105724244141</v>
       </c>
       <c r="L47">
-        <v>-0.0050451621261081</v>
+        <v>-0.0076182383145253</v>
       </c>
       <c r="M47">
-        <v>0.0127255960385663</v>
+        <v>0.0003003965106495</v>
       </c>
       <c r="N47">
-        <v>0.113233799196249</v>
+        <v>-0.754732501613855</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q47">
         <v>1823088</v>
@@ -3873,16 +3891,19 @@
         <v>5527495</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V47" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W47" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3890,118 +3911,121 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.159958867483246</v>
+        <v>0.877920749216206</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.7333333333333329</v>
+        <v>0.6121495327102801</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>103</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K48">
-        <v>-0.887871179039302</v>
+        <v>-0.0034055944055944</v>
       </c>
       <c r="L48">
-        <v>-2.22604857543107</v>
+        <v>-0.008546230389409401</v>
       </c>
       <c r="M48">
-        <v>0.253720102334911</v>
+        <v>0.0012651194582394</v>
       </c>
       <c r="N48">
-        <v>-0.862010853436216</v>
+        <v>-0.493564406607885</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48">
+        <v>1823088</v>
+      </c>
+      <c r="R48">
+        <v>5527495</v>
+      </c>
+      <c r="S48" t="s">
+        <v>58</v>
+      </c>
+      <c r="T48" t="s">
+        <v>59</v>
+      </c>
+      <c r="U48" t="s">
+        <v>60</v>
+      </c>
+      <c r="V48" t="s">
+        <v>61</v>
+      </c>
+      <c r="W48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49">
+        <v>0.407266603201975</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.464788732394366</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.032</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>-0.0003149227718502</v>
+      </c>
+      <c r="M49">
+        <v>0.0004970863478271</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>44</v>
+      </c>
+      <c r="P49" t="s">
         <v>55</v>
       </c>
-      <c r="Q48">
-        <v>1823088</v>
-      </c>
-      <c r="R48">
-        <v>5527495</v>
-      </c>
-      <c r="S48" t="s">
-        <v>57</v>
-      </c>
-      <c r="T48" t="s">
-        <v>58</v>
-      </c>
-      <c r="U48" t="s">
-        <v>59</v>
-      </c>
-      <c r="V48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49">
-        <v>15</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49">
-        <v>0.628721589036711</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>5.7625</v>
-      </c>
-      <c r="K49">
-        <v>0.019329184633477</v>
-      </c>
-      <c r="L49">
-        <v>-0.102374032220243</v>
-      </c>
-      <c r="M49">
-        <v>0.190325914098646</v>
-      </c>
-      <c r="N49">
-        <v>0.335430535938864</v>
-      </c>
-      <c r="O49" t="s">
-        <v>44</v>
-      </c>
-      <c r="P49" t="s">
-        <v>48</v>
-      </c>
       <c r="Q49">
         <v>1823088</v>
       </c>
@@ -4009,60 +4033,63 @@
         <v>5527495</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>61</v>
+      </c>
+      <c r="W49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>0.469720004017499</v>
+        <v>0.271143492766223</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.777777777777778</v>
+        <v>0.892523364485981</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>103</v>
+        <v>6.5</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.0377864417599367</v>
       </c>
       <c r="L50">
-        <v>-1.01041546310524</v>
+        <v>-0.0443482213516097</v>
       </c>
       <c r="M50">
-        <v>1.00210321431887</v>
+        <v>0.137497161885573</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>0.581329873229796</v>
       </c>
       <c r="O50" t="s">
         <v>44</v>
@@ -4077,16 +4104,699 @@
         <v>5527495</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V50" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="W50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.35</v>
+      </c>
+      <c r="K51">
+        <v>0.038860103361176</v>
+      </c>
+      <c r="L51">
+        <v>-0.065485995709605</v>
+      </c>
+      <c r="M51">
+        <v>0.08222868673352569</v>
+      </c>
+      <c r="N51">
+        <v>11.1028866746217</v>
+      </c>
+      <c r="O51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51">
+        <v>1823088</v>
+      </c>
+      <c r="R51">
+        <v>5527495</v>
+      </c>
+      <c r="S51" t="s">
+        <v>58</v>
+      </c>
+      <c r="T51" t="s">
+        <v>59</v>
+      </c>
+      <c r="U51" t="s">
+        <v>60</v>
+      </c>
+      <c r="V51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>98</v>
+      </c>
+      <c r="K52">
+        <v>11.7340634986245</v>
+      </c>
+      <c r="L52">
+        <v>-11.2980850749029</v>
+      </c>
+      <c r="M52">
+        <v>12.2908789517445</v>
+      </c>
+      <c r="N52">
+        <v>11.9735341822699</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q52">
+        <v>1823088</v>
+      </c>
+      <c r="R52">
+        <v>5527495</v>
+      </c>
+      <c r="S52" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" t="s">
+        <v>59</v>
+      </c>
+      <c r="U52" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>5.57</v>
+      </c>
+      <c r="K53">
+        <v>0.321730137474618</v>
+      </c>
+      <c r="L53">
+        <v>-1.24205762621506</v>
+      </c>
+      <c r="M53">
+        <v>1.09144980798862</v>
+      </c>
+      <c r="N53">
+        <v>5.77612455071127</v>
+      </c>
+      <c r="O53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53">
+        <v>1823088</v>
+      </c>
+      <c r="R53">
+        <v>5527495</v>
+      </c>
+      <c r="S53" t="s">
+        <v>58</v>
+      </c>
+      <c r="T53" t="s">
+        <v>59</v>
+      </c>
+      <c r="U53" t="s">
+        <v>60</v>
+      </c>
+      <c r="V53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.3955</v>
+      </c>
+      <c r="K54">
+        <v>-0.0027575497597803</v>
+      </c>
+      <c r="L54">
+        <v>-0.0267658392359159</v>
+      </c>
+      <c r="M54">
+        <v>0.0180603568852104</v>
+      </c>
+      <c r="N54">
+        <v>-0.697231291979865</v>
+      </c>
+      <c r="O54" t="s">
+        <v>44</v>
+      </c>
+      <c r="P54" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q54">
+        <v>1823088</v>
+      </c>
+      <c r="R54">
+        <v>5527495</v>
+      </c>
+      <c r="S54" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54" t="s">
+        <v>59</v>
+      </c>
+      <c r="U54" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>99.66500000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-1.72896313031692</v>
+      </c>
+      <c r="M55">
+        <v>2.60200732951897</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>44</v>
+      </c>
+      <c r="P55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55">
+        <v>1823088</v>
+      </c>
+      <c r="R55">
+        <v>5527495</v>
+      </c>
+      <c r="S55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" t="s">
+        <v>59</v>
+      </c>
+      <c r="U55" t="s">
+        <v>60</v>
+      </c>
+      <c r="V55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>5.675</v>
+      </c>
+      <c r="K56">
+        <v>0.0319553805774277</v>
+      </c>
+      <c r="L56">
+        <v>-0.386139801557433</v>
+      </c>
+      <c r="M56">
+        <v>0.297734929500985</v>
+      </c>
+      <c r="N56">
+        <v>0.563090406650708</v>
+      </c>
+      <c r="O56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <v>1823088</v>
+      </c>
+      <c r="R56">
+        <v>5527495</v>
+      </c>
+      <c r="S56" t="s">
+        <v>58</v>
+      </c>
+      <c r="T56" t="s">
+        <v>59</v>
+      </c>
+      <c r="U56" t="s">
+        <v>60</v>
+      </c>
+      <c r="V56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.364357596287925</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.38</v>
+      </c>
+      <c r="K57">
+        <v>-0.0004456985967053</v>
+      </c>
+      <c r="L57">
+        <v>-0.007346505524358</v>
+      </c>
+      <c r="M57">
+        <v>0.0091948372306964</v>
+      </c>
+      <c r="N57">
+        <v>-0.117289104396134</v>
+      </c>
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57">
+        <v>1823088</v>
+      </c>
+      <c r="R57">
+        <v>5527495</v>
+      </c>
+      <c r="S57" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57" t="s">
+        <v>59</v>
+      </c>
+      <c r="U57" t="s">
+        <v>60</v>
+      </c>
+      <c r="V57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.125859156058153</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>103</v>
+      </c>
+      <c r="K58">
+        <v>-0.887871179039302</v>
+      </c>
+      <c r="L58">
+        <v>-2.12524937110666</v>
+      </c>
+      <c r="M58">
+        <v>0.100368187543281</v>
+      </c>
+      <c r="N58">
+        <v>-0.862010853436216</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q58">
+        <v>1823088</v>
+      </c>
+      <c r="R58">
+        <v>5527495</v>
+      </c>
+      <c r="S58" t="s">
+        <v>58</v>
+      </c>
+      <c r="T58" t="s">
+        <v>59</v>
+      </c>
+      <c r="U58" t="s">
+        <v>60</v>
+      </c>
+      <c r="V58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.5</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>5.745</v>
+      </c>
+      <c r="K59">
+        <v>0.0069147034076567</v>
+      </c>
+      <c r="L59">
+        <v>-0.133142597678974</v>
+      </c>
+      <c r="M59">
+        <v>0.131002466013418</v>
+      </c>
+      <c r="N59">
+        <v>0.1203603726311</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q59">
+        <v>1823088</v>
+      </c>
+      <c r="R59">
+        <v>5527495</v>
+      </c>
+      <c r="S59" t="s">
+        <v>58</v>
+      </c>
+      <c r="T59" t="s">
+        <v>59</v>
+      </c>
+      <c r="U59" t="s">
+        <v>60</v>
+      </c>
+      <c r="V59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.362684681931946</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>103</v>
+      </c>
+      <c r="K60">
+        <v>-0.112835959221501</v>
+      </c>
+      <c r="L60">
+        <v>-1.00911679766551</v>
+      </c>
+      <c r="M60">
+        <v>0.834113740461445</v>
+      </c>
+      <c r="N60">
+        <v>-0.109549474972331</v>
+      </c>
+      <c r="O60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q60">
+        <v>1823088</v>
+      </c>
+      <c r="R60">
+        <v>5527495</v>
+      </c>
+      <c r="S60" t="s">
+        <v>58</v>
+      </c>
+      <c r="T60" t="s">
+        <v>59</v>
+      </c>
+      <c r="U60" t="s">
+        <v>60</v>
+      </c>
+      <c r="V60" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
